--- a/Technology/Hardware/Palo Alto Networks.xlsx
+++ b/Technology/Hardware/Palo Alto Networks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2589F9-D417-EC48-A2AB-84E3611EA6DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC6829-5FCD-1D49-97B2-A51B5809CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2311,13 +2311,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>213.1198</v>
+    <v>207.37989999999999</v>
     <v>132.22</v>
-    <v>1.1777</v>
-    <v>0.98</v>
-    <v>5.0970000000000008E-3</v>
-    <v>0.25</v>
-    <v>1.2939999999999998E-3</v>
+    <v>1.1693</v>
+    <v>14.57</v>
+    <v>7.6788999999999996E-2</v>
     <v>USD</v>
     <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company enables enterprises, service providers, and government entities to secure all users, applications, data, networks, clouds and devices with visibility and context, continuously across all locations. It delivers cybersecurity products covering a range of use cases, enabling its end-customers to secure their networks, remote and hybrid workforces, branch locations, and public and private clouds, and to advance their security operations centers (SOC). Its products are available in the form of the product, subscription, and support offerings, such as Firewall Appliances and Software, Panorama, Virtual System Upgrades, URL Filtering, Advanced URL Filtering, DNS Security, and IoT Security, among others. Its solutions are focused on five areas, which includes Network Security, Secure Access Service Edge, Cloud Security, Security Analytics and Automation, and Threat Intelligence and Security Consulting (Unit 42).</v>
     <v>13932</v>
@@ -2325,25 +2323,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
-    <v>194.42</v>
+    <v>207.37989999999999</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45037.999556666407</v>
+    <v>45070.999675335159</v>
     <v>0</v>
-    <v>191.17</v>
-    <v>58478980000</v>
+    <v>194.08</v>
+    <v>61825820049</v>
     <v>PALO ALTO NETWORKS, INC.</v>
     <v>PALO ALTO NETWORKS, INC.</v>
-    <v>192.27</v>
-    <v>2484.9569999999999</v>
-    <v>192.27</v>
-    <v>193.25</v>
-    <v>193.5</v>
+    <v>196.23</v>
+    <v>322.2115</v>
+    <v>189.74</v>
+    <v>204.31</v>
     <v>302607900</v>
     <v>PANW</v>
     <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
-    <v>2007113</v>
-    <v>2851334</v>
+    <v>16</v>
+    <v>3962457</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2375,8 +2372,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2397,7 +2392,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2414,7 +2408,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2425,16 +2419,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2500,19 +2491,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2557,9 +2542,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2567,9 +2549,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2931,10 +2910,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q91" sqref="Q91"/>
+      <selection pane="bottomRight" activeCell="O124" sqref="O124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3929,15 +3908,15 @@
       </c>
       <c r="V16" s="28">
         <f>W101/O3</f>
-        <v>10.629642824684177</v>
+        <v>11.237993283468144</v>
       </c>
       <c r="W16" s="28">
         <f>W101/O28</f>
-        <v>-219.02239700374531</v>
+        <v>-231.55737846067416</v>
       </c>
       <c r="X16" s="29">
         <f>W101/O106</f>
-        <v>32.635180534628049</v>
+        <v>34.502941039678554</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7799,7 +7778,7 @@
       </c>
       <c r="W95" s="55" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
-        <v>1.1777</v>
+        <v>1.1693</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7906,7 +7885,7 @@
       </c>
       <c r="W97" s="51">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>9.1649985000000003E-2</v>
+        <v>9.128836500000001E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8065,7 +8044,7 @@
       </c>
       <c r="W100" s="49">
         <f>W99/W103</f>
-        <v>6.331540873028331E-2</v>
+        <v>6.0093902664195939E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8119,7 +8098,7 @@
       </c>
       <c r="W101" s="40" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
-        <v>58478980000</v>
+        <v>61825820049</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8173,7 +8152,7 @@
       </c>
       <c r="W102" s="49">
         <f>W101/W103</f>
-        <v>0.9366845912697167</v>
+        <v>0.9399060973358041</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8227,7 +8206,7 @@
       </c>
       <c r="W103" s="53">
         <f>W99+W101</f>
-        <v>62431880000</v>
+        <v>65778720049</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8349,7 +8328,7 @@
       </c>
       <c r="W105" s="24">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>8.6264061927900024E-2</v>
+        <v>8.6198210388004529E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8451,7 +8430,7 @@
       <c r="S107" s="30"/>
       <c r="T107" s="33">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>74441300576.347794</v>
+        <v>74521402171.536545</v>
       </c>
       <c r="U107" s="34" t="s">
         <v>147</v>
@@ -8482,7 +8461,7 @@
       </c>
       <c r="T108" s="33">
         <f>T107+T106</f>
-        <v>78890643452.935883</v>
+        <v>78970745048.124634</v>
       </c>
       <c r="U108" s="34" t="s">
         <v>143</v>
@@ -8492,7 +8471,7 @@
       </c>
       <c r="W108" s="38">
         <f>W105</f>
-        <v>8.6264061927900024E-2</v>
+        <v>8.6198210388004529E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8507,7 +8486,7 @@
       </c>
       <c r="Q110" s="40">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>61401710189.793396</v>
+        <v>61471971559.346077</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8534,7 +8513,7 @@
       </c>
       <c r="Q113" s="40">
         <f>Q110+Q111-Q112</f>
-        <v>61083310189.793396</v>
+        <v>61153571559.346077</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8552,7 +8531,7 @@
       </c>
       <c r="Q115" s="58">
         <f>Q113/Q114</f>
-        <v>190.57097139699553</v>
+        <v>190.79017656786354</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8561,7 +8540,7 @@
       </c>
       <c r="Q116" s="56" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
-        <v>193.25</v>
+        <v>204.31</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8570,7 +8549,7 @@
       </c>
       <c r="Q117" s="43">
         <f>Q115/Q116-1</f>
-        <v>-1.3863019937927379E-2</v>
+        <v>-6.6173087132966879E-2</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Palo Alto Networks.xlsx
+++ b/Technology/Hardware/Palo Alto Networks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC6829-5FCD-1D49-97B2-A51B5809CE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF32B8-1D2C-7F40-A976-9EDC3B3D9338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2311,36 +2311,36 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>207.37989999999999</v>
+    <v>249.26</v>
     <v>132.22</v>
-    <v>1.1693</v>
-    <v>14.57</v>
-    <v>7.6788999999999996E-2</v>
+    <v>1.1850000000000001</v>
+    <v>10.23</v>
+    <v>4.2817999999999995E-2</v>
     <v>USD</v>
     <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company enables enterprises, service providers, and government entities to secure all users, applications, data, networks, clouds and devices with visibility and context, continuously across all locations. It delivers cybersecurity products covering a range of use cases, enabling its end-customers to secure their networks, remote and hybrid workforces, branch locations, and public and private clouds, and to advance their security operations centers (SOC). Its products are available in the form of the product, subscription, and support offerings, such as Firewall Appliances and Software, Panorama, Virtual System Upgrades, URL Filtering, Advanced URL Filtering, DNS Security, and IoT Security, among others. Its solutions are focused on five areas, which includes Network Security, Secure Access Service Edge, Cloud Security, Security Analytics and Automation, and Threat Intelligence and Security Consulting (Unit 42).</v>
-    <v>13932</v>
+    <v>13979</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
-    <v>207.37989999999999</v>
+    <v>249.26</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45070.999675335159</v>
+    <v>45099.999895914065</v>
     <v>0</v>
-    <v>194.08</v>
-    <v>61825820049</v>
+    <v>238.36</v>
+    <v>76203723420</v>
     <v>PALO ALTO NETWORKS, INC.</v>
     <v>PALO ALTO NETWORKS, INC.</v>
-    <v>196.23</v>
-    <v>322.2115</v>
-    <v>189.74</v>
-    <v>204.31</v>
-    <v>302607900</v>
+    <v>238.91</v>
+    <v>391.23680000000002</v>
+    <v>238.92</v>
+    <v>249.15</v>
+    <v>305854800</v>
     <v>PANW</v>
     <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
-    <v>16</v>
-    <v>3962457</v>
+    <v>3382</v>
+    <v>8447469</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2913,7 +2913,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O124" sqref="O124"/>
+      <selection pane="bottomRight" activeCell="N114" sqref="N114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="V16" s="28">
         <f>W101/O3</f>
-        <v>11.237993283468144</v>
+        <v>13.85144477324366</v>
       </c>
       <c r="W16" s="28">
         <f>W101/O28</f>
-        <v>-231.55737846067416</v>
+        <v>-285.40720382022471</v>
       </c>
       <c r="X16" s="29">
         <f>W101/O106</f>
-        <v>34.502941039678554</v>
+        <v>42.526772375690605</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="W95" s="55" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
-        <v>1.1693</v>
+        <v>1.1850000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="W97" s="51">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>9.128836500000001E-2</v>
+        <v>9.1964250000000011E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="W100" s="49">
         <f>W99/W103</f>
-        <v>6.0093902664195939E-2</v>
+        <v>4.9314702033889643E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="W101" s="40" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
-        <v>61825820049</v>
+        <v>76203723420</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="W102" s="49">
         <f>W101/W103</f>
-        <v>0.9399060973358041</v>
+        <v>0.95068529796611034</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="W103" s="53">
         <f>W99+W101</f>
-        <v>65778720049</v>
+        <v>80156623420</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="W105" s="24">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>8.6198210388004529E-2</v>
+        <v>8.7753798678008976E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
       <c r="S107" s="30"/>
       <c r="T107" s="33">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>74521402171.536545</v>
+        <v>72674109688.613449</v>
       </c>
       <c r="U107" s="34" t="s">
         <v>147</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="T108" s="33">
         <f>T107+T106</f>
-        <v>78970745048.124634</v>
+        <v>77123452565.201538</v>
       </c>
       <c r="U108" s="34" t="s">
         <v>143</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="W108" s="38">
         <f>W105</f>
-        <v>8.6198210388004529E-2</v>
+        <v>8.7753798678008976E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="Q110" s="40">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>61471971559.346077</v>
+        <v>59851883577.384613</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="Q113" s="40">
         <f>Q110+Q111-Q112</f>
-        <v>61153571559.346077</v>
+        <v>59533483577.384613</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="Q115" s="58">
         <f>Q113/Q114</f>
-        <v>190.79017656786354</v>
+        <v>185.73573961099765</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="Q116" s="56" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
-        <v>204.31</v>
+        <v>249.15</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="Q117" s="43">
         <f>Q115/Q116-1</f>
-        <v>-6.6173087132966879E-2</v>
+        <v>-0.25452241777644935</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Palo Alto Networks.xlsx
+++ b/Technology/Hardware/Palo Alto Networks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF32B8-1D2C-7F40-A976-9EDC3B3D9338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD69B8-8E16-1948-9C70-4C037676E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -2311,11 +2311,11 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>249.26</v>
+    <v>255.42</v>
     <v>132.22</v>
-    <v>1.1850000000000001</v>
-    <v>10.23</v>
-    <v>4.2817999999999995E-2</v>
+    <v>1.1873</v>
+    <v>1.82</v>
+    <v>7.2340000000000008E-3</v>
     <v>USD</v>
     <v>Palo Alto Networks, Inc. is a global cybersecurity provider. The Company enables enterprises, service providers, and government entities to secure all users, applications, data, networks, clouds and devices with visibility and context, continuously across all locations. It delivers cybersecurity products covering a range of use cases, enabling its end-customers to secure their networks, remote and hybrid workforces, branch locations, and public and private clouds, and to advance their security operations centers (SOC). Its products are available in the form of the product, subscription, and support offerings, such as Firewall Appliances and Software, Panorama, Virtual System Upgrades, URL Filtering, Advanced URL Filtering, DNS Security, and IoT Security, among others. Its solutions are focused on five areas, which includes Network Security, Secure Access Service Edge, Cloud Security, Security Analytics and Automation, and Threat Intelligence and Security Consulting (Unit 42).</v>
     <v>13979</v>
@@ -2323,24 +2323,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>3000 Tannery Way, SANTA CLARA, CA, 95054 US</v>
-    <v>249.26</v>
+    <v>255.42</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45099.999895914065</v>
+    <v>45105.999743691405</v>
     <v>0</v>
-    <v>238.36</v>
-    <v>76203723420</v>
+    <v>247.83</v>
+    <v>77506664868</v>
     <v>PALO ALTO NETWORKS, INC.</v>
     <v>PALO ALTO NETWORKS, INC.</v>
-    <v>238.91</v>
-    <v>391.23680000000002</v>
-    <v>238.92</v>
-    <v>249.15</v>
+    <v>248.76</v>
+    <v>397.92619999999999</v>
+    <v>251.59</v>
+    <v>253.41</v>
     <v>305854800</v>
     <v>PANW</v>
     <v>PALO ALTO NETWORKS, INC. (XNAS:PANW)</v>
-    <v>3382</v>
-    <v>8447469</v>
+    <v>647</v>
+    <v>8690584</v>
     <v>2005</v>
   </rv>
   <rv s="2">
@@ -2493,10 +2493,10 @@
       <v>4</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
     </spb>
   </spbData>
@@ -2910,10 +2910,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L93" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N114" sqref="N114"/>
+      <selection pane="bottomRight" activeCell="S97" sqref="S97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="V16" s="28">
         <f>W101/O3</f>
-        <v>13.85144477324366</v>
+        <v>14.088278627283469</v>
       </c>
       <c r="W16" s="28">
         <f>W101/O28</f>
-        <v>-285.40720382022471</v>
+        <v>-290.28713433707867</v>
       </c>
       <c r="X16" s="29">
         <f>W101/O106</f>
-        <v>42.526772375690605</v>
+        <v>43.253900813661474</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="W95" s="55" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
-        <v>1.1850000000000001</v>
+        <v>1.1873</v>
       </c>
     </row>
     <row r="96" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="W97" s="51">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>9.1964250000000011E-2</v>
+        <v>9.2063265000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8044,7 +8044,7 @@
       </c>
       <c r="W100" s="49">
         <f>W99/W103</f>
-        <v>4.9314702033889643E-2</v>
+        <v>4.8525915973224518E-2</v>
       </c>
     </row>
     <row r="101" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="W101" s="40" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
-        <v>76203723420</v>
+        <v>77506664868</v>
       </c>
     </row>
     <row r="102" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8152,7 +8152,7 @@
       </c>
       <c r="W102" s="49">
         <f>W101/W103</f>
-        <v>0.95068529796611034</v>
+        <v>0.95147408402677547</v>
       </c>
     </row>
     <row r="103" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8206,7 +8206,7 @@
       </c>
       <c r="W103" s="53">
         <f>W99+W101</f>
-        <v>80156623420</v>
+        <v>81459564868</v>
       </c>
     </row>
     <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8328,7 +8328,7 @@
       </c>
       <c r="W105" s="24">
         <f>(W100*W92)+(W102*W97)</f>
-        <v>8.7753798678008976E-2</v>
+        <v>8.7915354831487547E-2</v>
       </c>
     </row>
     <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8430,7 +8430,7 @@
       <c r="S107" s="30"/>
       <c r="T107" s="33">
         <f>T106*(1+W107)/(W108-W107)</f>
-        <v>72674109688.613449</v>
+        <v>72487494677.854645</v>
       </c>
       <c r="U107" s="34" t="s">
         <v>147</v>
@@ -8461,7 +8461,7 @@
       </c>
       <c r="T108" s="33">
         <f>T107+T106</f>
-        <v>77123452565.201538</v>
+        <v>76936837554.442734</v>
       </c>
       <c r="U108" s="34" t="s">
         <v>143</v>
@@ -8471,7 +8471,7 @@
       </c>
       <c r="W108" s="38">
         <f>W105</f>
-        <v>8.7753798678008976E-2</v>
+        <v>8.7915354831487547E-2</v>
       </c>
     </row>
     <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
@@ -8486,7 +8486,7 @@
       </c>
       <c r="Q110" s="40">
         <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>59851883577.384613</v>
+        <v>59688253164.844048</v>
       </c>
     </row>
     <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="Q113" s="40">
         <f>Q110+Q111-Q112</f>
-        <v>59533483577.384613</v>
+        <v>59369853164.844048</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="Q115" s="58">
         <f>Q113/Q114</f>
-        <v>185.73573961099765</v>
+        <v>185.22523671632715</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="Q116" s="56" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
-        <v>249.15</v>
+        <v>253.41</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="Q117" s="43">
         <f>Q115/Q116-1</f>
-        <v>-0.25452241777644935</v>
+        <v>-0.26906895262094177</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Palo Alto Networks.xlsx
+++ b/Technology/Hardware/Palo Alto Networks.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAD69B8-8E16-1948-9C70-4C037676E293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F27ECD2-29EB-D943-A0EF-37FF9AA87C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5540" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -550,18 +544,50 @@
   </si>
   <si>
     <t>Net Cash</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -724,7 +750,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -830,62 +856,18 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -935,102 +917,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="10" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1083,9 +1055,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>PANW</a:t>
+              <a:t>Palo Alto Networks</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1122,10 +1093,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10381888135345288"/>
-          <c:y val="0.16865358541110537"/>
-          <c:w val="0.81743945519554162"/>
-          <c:h val="0.68125275960936738"/>
+          <c:x val="9.37615894039735E-2"/>
+          <c:y val="0.15173542237449564"/>
+          <c:w val="0.84133774834437092"/>
+          <c:h val="0.61780595417449524"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1179,6 +1150,57 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'Sheet 1'!$B$3:$O$3</c:f>
@@ -1232,7 +1254,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D18-9042-BA52-16C544DFEA23}"/>
+              <c16:uniqueId val="{00000000-727D-654F-9825-5251E1711235}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1241,11 +1263,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$19</c:f>
+              <c:f>'Sheet 1'!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EBITDA</c:v>
+                  <c:v>Net Income</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1283,60 +1305,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$19:$O$19</c:f>
+              <c:f>'Sheet 1'!$B$28:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>-17813000</c:v>
+                  <c:v>-19005000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-19954000</c:v>
+                  <c:v>-21133000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9863000</c:v>
+                  <c:v>-12528000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8933000</c:v>
+                  <c:v>737000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8764000</c:v>
+                  <c:v>-29246000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-200858000</c:v>
+                  <c:v>-226452000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-104371000</c:v>
+                  <c:v>-164982000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-138900000</c:v>
+                  <c:v>-225900000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-109800000</c:v>
+                  <c:v>-216600000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4200000</c:v>
+                  <c:v>-147900000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>163100000</c:v>
+                  <c:v>-81900000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>110400000</c:v>
+                  <c:v>-267000000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3200000</c:v>
+                  <c:v>-498900000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95600000</c:v>
+                  <c:v>-267000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4D18-9042-BA52-16C544DFEA23}"/>
+              <c16:uniqueId val="{00000001-727D-654F-9825-5251E1711235}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1345,11 +1418,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106</c:f>
+              <c:f>'Sheet 1'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1387,9 +1460,60 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sheet 1'!$B$1:$O$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$B$106:$O$106</c:f>
+              <c:f>'Sheet 1'!$B$107:$O$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1440,7 +1564,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D18-9042-BA52-16C544DFEA23}"/>
+              <c16:uniqueId val="{00000002-727D-654F-9825-5251E1711235}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1454,11 +1578,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="248674591"/>
-        <c:axId val="248676863"/>
+        <c:axId val="347648864"/>
+        <c:axId val="347347360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="248674591"/>
+        <c:axId val="347648864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1486,7 +1610,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx2"/>
                 </a:solidFill>
@@ -1498,7 +1622,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248676863"/>
+        <c:crossAx val="347347360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1506,9 +1630,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="248676863"/>
+        <c:axId val="347347360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1554,7 +1679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248674591"/>
+        <c:crossAx val="347648864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1572,10 +1697,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.33494379108374922"/>
-          <c:y val="0.88054780822024825"/>
-          <c:w val="0.35680450713792705"/>
-          <c:h val="7.8396478044756648E-2"/>
+          <c:x val="0.34285008082598945"/>
+          <c:y val="0.88457557989603264"/>
+          <c:w val="0.31429983834802105"/>
+          <c:h val="6.309659537091436E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1591,7 +1716,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx2"/>
               </a:solidFill>
@@ -2155,22 +2280,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>25398</xdr:rowOff>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{287B3D21-FB4F-F774-A363-FB96A4AAD116}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AE0BC6F-2BB7-013D-6A62-1D4D9FF9A34A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2189,6 +2314,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Treasuries"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
+      <sheetName val="Short List"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>3.9120000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2910,10 +3089,10 @@
   <dimension ref="A1:X118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M85" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S97" sqref="S97"/>
+      <selection pane="bottomRight" activeCell="Q97" sqref="Q97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2969,19 +3148,19 @@
       <c r="O1" s="8">
         <v>2022</v>
       </c>
-      <c r="P1" s="25">
+      <c r="P1" s="23">
         <v>2023</v>
       </c>
-      <c r="Q1" s="25">
+      <c r="Q1" s="23">
         <v>2024</v>
       </c>
-      <c r="R1" s="25">
+      <c r="R1" s="23">
         <v>2025</v>
       </c>
-      <c r="S1" s="25">
+      <c r="S1" s="23">
         <v>2026</v>
       </c>
-      <c r="T1" s="25">
+      <c r="T1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -2990,55 +3169,55 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
@@ -3093,37 +3272,37 @@
       <c r="O3" s="1">
         <v>5501500000</v>
       </c>
-      <c r="P3" s="26">
-        <v>6883000000</v>
-      </c>
-      <c r="Q3" s="26">
-        <v>8370000000</v>
-      </c>
-      <c r="R3" s="26">
-        <v>9951000000</v>
-      </c>
-      <c r="S3" s="26">
-        <v>11763000000</v>
-      </c>
-      <c r="T3" s="26">
-        <v>13637000000</v>
+      <c r="P3" s="24">
+        <v>6898000000</v>
+      </c>
+      <c r="Q3" s="24">
+        <v>8380000000</v>
+      </c>
+      <c r="R3" s="24">
+        <v>10044000000</v>
+      </c>
+      <c r="S3" s="24">
+        <v>12028000000</v>
+      </c>
+      <c r="T3" s="24">
+        <v>13950000000</v>
       </c>
       <c r="U3" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="W3" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="V3" s="19" t="s">
+      <c r="X3" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="W3" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="X3" s="19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3180,23 +3359,23 @@
       </c>
       <c r="P4" s="16">
         <f t="shared" si="0"/>
-        <v>0.25111333272743797</v>
+        <v>0.2538398618558575</v>
       </c>
       <c r="Q4" s="16">
         <f t="shared" si="0"/>
-        <v>0.21603951765218654</v>
+        <v>0.21484488257465939</v>
       </c>
       <c r="R4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18888888888888888</v>
+        <v>0.19856801909307875</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="0"/>
-        <v>0.18209225203497126</v>
+        <v>0.19753086419753085</v>
       </c>
       <c r="T4" s="16">
         <f t="shared" si="0"/>
-        <v>0.15931310039955804</v>
+        <v>0.15979381443298979</v>
       </c>
       <c r="U4" s="17">
         <f>(O4+N4+M4)/3</f>
@@ -3211,7 +3390,7 @@
         <v>0.88792999205817524</v>
       </c>
       <c r="X4" s="17">
-        <f>(O105+N105+M105)/3</f>
+        <f>(O106+N106+M106)/3</f>
         <v>0.28972642815803512</v>
       </c>
     </row>
@@ -3309,16 +3488,16 @@
         <v>3782800000</v>
       </c>
       <c r="U6" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="V6" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="W6" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="X6" s="19" t="s">
         <v>114</v>
-      </c>
-      <c r="W6" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="X6" s="19" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3380,7 +3559,7 @@
         <v>-4.8500000000000001E-2</v>
       </c>
       <c r="X7" s="20">
-        <f>O106/O3</f>
+        <f>O107/O3</f>
         <v>0.32571116968099612</v>
       </c>
     </row>
@@ -3433,7 +3612,7 @@
     </row>
     <row r="9" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3492,16 +3671,16 @@
         <v>0.25769335635735707</v>
       </c>
       <c r="U9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="V9" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="V9" s="19" t="s">
+      <c r="W9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="W9" s="19" t="s">
+      <c r="X9" s="19" t="s">
         <v>98</v>
-      </c>
-      <c r="X9" s="19" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3661,21 +3840,21 @@
         <v>2553900000</v>
       </c>
       <c r="U12" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="W12" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="V12" s="19" t="s">
+      <c r="X12" s="19" t="s">
         <v>118</v>
-      </c>
-      <c r="W12" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="X12" s="19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3755,46 +3934,46 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:24" ht="20" x14ac:dyDescent="0.25">
@@ -3844,16 +4023,16 @@
         <v>3971600000</v>
       </c>
       <c r="U15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="W15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="V15" s="19" t="s">
+      <c r="X15" s="19" t="s">
         <v>122</v>
-      </c>
-      <c r="W15" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="X15" s="19" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:24" ht="19" x14ac:dyDescent="0.25">
@@ -3902,41 +4081,41 @@
       <c r="O16" s="1">
         <v>5690300000</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="25">
         <f>(O35+N35+M35+L35+K35)/5</f>
         <v>1.693934610797589E-2</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="32">
         <f>W101/O3</f>
         <v>14.088278627283469</v>
       </c>
-      <c r="W16" s="28">
+      <c r="W16" s="32">
         <f>W101/O28</f>
         <v>-290.28713433707867</v>
       </c>
-      <c r="X16" s="29">
-        <f>W101/O106</f>
+      <c r="X16" s="33">
+        <f>W101/O107</f>
         <v>43.253900813661474</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1">
         <v>1883000</v>
@@ -3966,7 +4145,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -4013,10 +4192,19 @@
         <v>282600000</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="V18" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="W18" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="X18" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -4062,14 +4250,41 @@
       <c r="O19" s="10">
         <v>95600000</v>
       </c>
-      <c r="U19" s="54">
+      <c r="P19" s="36">
+        <v>1885000000</v>
+      </c>
+      <c r="Q19" s="36">
+        <v>2281000000</v>
+      </c>
+      <c r="R19" s="36">
+        <v>2813000000</v>
+      </c>
+      <c r="S19" s="36">
+        <v>3753000000</v>
+      </c>
+      <c r="T19" s="36">
+        <v>4702000000</v>
+      </c>
+      <c r="U19" s="28">
         <f>O40-O56-O61</f>
         <v>-318400000</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V19" s="32">
+        <f>W101/P3</f>
+        <v>11.236106823427081</v>
+      </c>
+      <c r="W19" s="32">
+        <f>W101/P28</f>
+        <v>56.164249904347827</v>
+      </c>
+      <c r="X19" s="33">
+        <f>W101/P105</f>
+        <v>139.97170143275903</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4085,7 +4300,7 @@
         <v>-1.9057082023725034</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:O20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:T20" si="3">(F19/E19)-1</f>
         <v>-1.9810813836337178</v>
       </c>
       <c r="G20" s="15">
@@ -4124,8 +4339,28 @@
         <f t="shared" si="3"/>
         <v>28.875</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P20" s="16">
+        <f t="shared" si="3"/>
+        <v>18.717573221757323</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.210079575596817</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.2332310390179746</v>
+      </c>
+      <c r="S20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.33416281549946669</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" si="3"/>
+        <v>0.25286437516653337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -4171,8 +4406,34 @@
       <c r="O21" s="2">
         <v>1.7399999999999999E-2</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P21" s="37">
+        <f>P19/P3</f>
+        <v>0.27326761380110176</v>
+      </c>
+      <c r="Q21" s="37">
+        <f t="shared" ref="Q21:T21" si="4">Q19/Q3</f>
+        <v>0.27219570405727922</v>
+      </c>
+      <c r="R21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.28006770211071286</v>
+      </c>
+      <c r="S21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.31202194878616563</v>
+      </c>
+      <c r="T21" s="37">
+        <f t="shared" si="4"/>
+        <v>0.33706093189964159</v>
+      </c>
+      <c r="W21" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="X21" s="19" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -4218,8 +4479,16 @@
       <c r="O22" s="10">
         <v>-188800000</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="W22" s="34">
+        <f>(-1*O98)/W101</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="35">
+        <f>O107/W101</f>
+        <v>2.3119302101977268E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -4266,7 +4535,7 @@
         <v>-3.4299999999999997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4313,7 +4582,7 @@
         <v>-18400000</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4360,7 +4629,7 @@
         <v>-207200000</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4407,7 +4676,7 @@
         <v>-3.7699999999999997E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4723,7 @@
         <v>59800000</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4500,10 +4769,25 @@
       <c r="O28" s="11">
         <v>-267000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:21" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="38">
+        <v>1380000000</v>
+      </c>
+      <c r="Q28" s="38">
+        <v>1694000000</v>
+      </c>
+      <c r="R28" s="38">
+        <v>2031000000</v>
+      </c>
+      <c r="S28" s="38">
+        <v>2900000000</v>
+      </c>
+      <c r="T28" s="38">
+        <v>3343000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -4519,47 +4803,67 @@
         <v>-1.0588282247765006</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:O29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:T29" si="5">(F28/E28)-1</f>
         <v>-40.682496607869744</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6.7430075907816454</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.2714482539346087</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.36924028075790094</v>
       </c>
       <c r="J29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.116865869853914E-2</v>
       </c>
       <c r="K29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.31717451523545703</v>
       </c>
       <c r="L29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.44624746450304265</v>
       </c>
       <c r="M29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.26007326007326</v>
       </c>
       <c r="N29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.86853932584269655</v>
       </c>
       <c r="O29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.46482260974143119</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P29" s="16">
+        <f t="shared" si="5"/>
+        <v>-6.1685393258426968</v>
+      </c>
+      <c r="Q29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.22753623188405792</v>
+      </c>
+      <c r="R29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.19893742621015353</v>
+      </c>
+      <c r="S29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.42786804529788292</v>
+      </c>
+      <c r="T29" s="16">
+        <f t="shared" si="5"/>
+        <v>0.15275862068965518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4605,8 +4909,28 @@
       <c r="O30" s="2">
         <v>-4.8500000000000001E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P30" s="39">
+        <f>P28/P3</f>
+        <v>0.20005798782255726</v>
+      </c>
+      <c r="Q30" s="39">
+        <f t="shared" ref="Q30:T30" si="6">Q28/Q3</f>
+        <v>0.20214797136038187</v>
+      </c>
+      <c r="R30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.20221027479091996</v>
+      </c>
+      <c r="S30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.2411040904556036</v>
+      </c>
+      <c r="T30" s="39">
+        <f t="shared" si="6"/>
+        <v>0.23964157706093189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4652,8 +4976,23 @@
       <c r="O31" s="12">
         <v>-0.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="19" x14ac:dyDescent="0.25">
+      <c r="P31" s="40">
+        <v>4.51</v>
+      </c>
+      <c r="Q31" s="40">
+        <v>5.54</v>
+      </c>
+      <c r="R31" s="40">
+        <v>6.64</v>
+      </c>
+      <c r="S31" s="40">
+        <v>9.48</v>
+      </c>
+      <c r="T31" s="40">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4796,7 +5135,7 @@
     </row>
     <row r="35" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -4804,51 +5143,51 @@
         <v>0</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:O35" si="5">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:O35" si="7">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-0.64603418648819755</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5097347846083089</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.1666229870999682E-2</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.8639135292296509E-2</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7153481419767458E-2</v>
       </c>
       <c r="J35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.0183696900114814E-2</v>
       </c>
       <c r="K35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2141280353200883E-2</v>
       </c>
       <c r="L35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.0534351145038167E-2</v>
       </c>
       <c r="M35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5396825396825397E-2</v>
       </c>
       <c r="N35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.1599587203302374E-3</v>
       </c>
       <c r="O35" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.1784232365145227E-2</v>
       </c>
     </row>
@@ -4857,46 +5196,46 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -4904,46 +5243,46 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -4951,7 +5290,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>18835000</v>
@@ -4998,16 +5337,16 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>109007000</v>
@@ -5045,7 +5384,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>18835000</v>
@@ -5092,7 +5431,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>14241000</v>
@@ -5139,46 +5478,46 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5186,7 +5525,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>2584000</v>
@@ -5233,7 +5572,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>35660000</v>
@@ -5280,7 +5619,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>1833000</v>
@@ -5327,19 +5666,19 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1">
         <v>155033000</v>
@@ -5374,19 +5713,19 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1">
         <v>47955000</v>
@@ -5421,19 +5760,19 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1">
         <v>202988000</v>
@@ -5468,16 +5807,16 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F49" s="1">
         <v>17314000</v>
@@ -5515,46 +5854,46 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5562,7 +5901,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>626000</v>
@@ -5609,7 +5948,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>2459000</v>
@@ -5656,46 +5995,46 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5703,7 +6042,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>38119000</v>
@@ -5750,7 +6089,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>2701000</v>
@@ -5797,40 +6136,40 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H56" s="1">
         <v>487084000</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K56" s="1">
         <v>550400000</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N56" s="1">
         <v>1557900000</v>
@@ -5844,46 +6183,46 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -5891,7 +6230,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>16537000</v>
@@ -5938,7 +6277,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>9422000</v>
@@ -5985,7 +6324,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>28660000</v>
@@ -6032,25 +6371,25 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G61" s="1">
         <v>466875000</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I61" s="1">
         <v>508200000</v>
@@ -6079,7 +6418,7 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1">
         <v>7584000</v>
@@ -6126,46 +6465,46 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6173,7 +6512,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>67523000</v>
@@ -6220,7 +6559,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>75107000</v>
@@ -6267,46 +6606,46 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6314,7 +6653,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>103767000</v>
@@ -6361,7 +6700,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>2000</v>
@@ -6408,7 +6747,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1">
         <v>-68237000</v>
@@ -6455,7 +6794,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-2922000</v>
@@ -6502,7 +6841,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1">
         <v>5509000</v>
@@ -6523,7 +6862,7 @@
         <v>1124299000</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J71" s="1">
         <v>-400000</v>
@@ -6541,7 +6880,7 @@
         <v>129100000</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6549,7 +6888,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>-65648000</v>
@@ -6596,7 +6935,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>38119000</v>
@@ -6643,46 +6982,46 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="21" x14ac:dyDescent="0.25">
@@ -6690,46 +7029,46 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6831,46 +7170,46 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="19" x14ac:dyDescent="0.25">
@@ -6922,62 +7261,62 @@
     </row>
     <row r="80" spans="1:15" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15">
-        <f t="shared" ref="B80:O80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:O80" si="8">B79/B3</f>
         <v>2.8010784901138407E-2</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7813947767619204E-2</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9908260748585549E-2</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.4233395260604063E-2</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.11033382394151076</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.16679622654757187</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.23847262868890967</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28494740660137829</v>
       </c>
       <c r="J80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.26935740236148953</v>
       </c>
       <c r="K80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21851216400510318</v>
       </c>
       <c r="L80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19578562560353152</v>
       </c>
       <c r="M80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.19316981574932521</v>
       </c>
       <c r="N80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.21016893400061087</v>
       </c>
       <c r="O80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.18378624011633191</v>
       </c>
     </row>
@@ -7080,51 +7419,51 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V83" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="W83" s="62"/>
+        <v>91</v>
+      </c>
+      <c r="V83" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="W83" s="65"/>
     </row>
     <row r="84" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7172,10 +7511,10 @@
       <c r="O84" s="1">
         <v>69300000</v>
       </c>
-      <c r="V84" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="W84" s="64"/>
+      <c r="V84" s="66" t="s">
+        <v>124</v>
+      </c>
+      <c r="W84" s="66"/>
     </row>
     <row r="85" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7223,10 +7562,10 @@
       <c r="O85" s="1">
         <v>1541600000</v>
       </c>
-      <c r="V85" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="W85" s="47">
+      <c r="V85" s="41" t="s">
+        <v>125</v>
+      </c>
+      <c r="W85" s="42">
         <f>O17</f>
         <v>20200000</v>
       </c>
@@ -7277,10 +7616,10 @@
       <c r="O86" s="1">
         <v>437200000</v>
       </c>
-      <c r="V86" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="W86" s="47">
+      <c r="V86" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="W86" s="42">
         <f>O56</f>
         <v>3676800000</v>
       </c>
@@ -7331,10 +7670,10 @@
       <c r="O87" s="10">
         <v>1984700000</v>
       </c>
-      <c r="V87" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="W87" s="47">
+      <c r="V87" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="W87" s="42">
         <f>O61</f>
         <v>276100000</v>
       </c>
@@ -7385,78 +7724,78 @@
       <c r="O88" s="1">
         <v>-192800000</v>
       </c>
-      <c r="V88" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="W88" s="49">
+      <c r="V88" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="W88" s="44">
         <f>W85/(W86+W87)</f>
         <v>5.1101722785802826E-3</v>
       </c>
     </row>
     <row r="89" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="B89" s="15">
+        <f t="shared" ref="B89:O89" si="9">(-1*B88)/B3</f>
+        <v>7.8265428400239659E-2</v>
+      </c>
+      <c r="C89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.4541429215694315E-2</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>0.10961491437388804</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.7086753051289893E-2</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.6656408495684249E-2</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.0361530578639501E-2</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.6450543719532956E-2</v>
+      </c>
+      <c r="I89" s="15">
+        <f t="shared" si="9"/>
+        <v>5.259339862169024E-2</v>
+      </c>
+      <c r="J89" s="15">
+        <f t="shared" si="9"/>
+        <v>9.2756584922797453E-2</v>
+      </c>
+      <c r="K89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.9271919405217544E-2</v>
+      </c>
+      <c r="L89" s="15">
+        <f t="shared" si="9"/>
+        <v>4.524762036142916E-2</v>
+      </c>
+      <c r="M89" s="15">
+        <f t="shared" si="9"/>
+        <v>6.2903415092125339E-2</v>
+      </c>
+      <c r="N89" s="15">
+        <f t="shared" si="9"/>
+        <v>2.7254998707737132E-2</v>
+      </c>
+      <c r="O89" s="15">
+        <f t="shared" si="9"/>
+        <v>3.5044987730618919E-2</v>
+      </c>
+      <c r="V89" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="15">
-        <f t="shared" ref="B89:O89" si="7">(-1*B88)/B3</f>
-        <v>7.8265428400239659E-2</v>
-      </c>
-      <c r="C89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.4541429215694315E-2</v>
-      </c>
-      <c r="D89" s="15">
-        <f t="shared" si="7"/>
-        <v>0.10961491437388804</v>
-      </c>
-      <c r="E89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.7086753051289893E-2</v>
-      </c>
-      <c r="F89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.6656408495684249E-2</v>
-      </c>
-      <c r="G89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.0361530578639501E-2</v>
-      </c>
-      <c r="H89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.6450543719532956E-2</v>
-      </c>
-      <c r="I89" s="15">
-        <f t="shared" si="7"/>
-        <v>5.259339862169024E-2</v>
-      </c>
-      <c r="J89" s="15">
-        <f t="shared" si="7"/>
-        <v>9.2756584922797453E-2</v>
-      </c>
-      <c r="K89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.9271919405217544E-2</v>
-      </c>
-      <c r="L89" s="15">
-        <f t="shared" si="7"/>
-        <v>4.524762036142916E-2</v>
-      </c>
-      <c r="M89" s="15">
-        <f t="shared" si="7"/>
-        <v>6.2903415092125339E-2</v>
-      </c>
-      <c r="N89" s="15">
-        <f t="shared" si="7"/>
-        <v>2.7254998707737132E-2</v>
-      </c>
-      <c r="O89" s="15">
-        <f t="shared" si="7"/>
-        <v>3.5044987730618919E-2</v>
-      </c>
-      <c r="V89" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="W89" s="47">
+      <c r="W89" s="42">
         <f>O27</f>
         <v>59800000</v>
       </c>
@@ -7466,19 +7805,19 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G90" s="1">
         <v>-86000000</v>
@@ -7487,7 +7826,7 @@
         <v>-15000000</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J90" s="1">
         <v>-91000000</v>
@@ -7507,10 +7846,10 @@
       <c r="O90" s="1">
         <v>-37000000</v>
       </c>
-      <c r="V90" s="46" t="s">
+      <c r="V90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="W90" s="47">
+      <c r="W90" s="42">
         <f>O25</f>
         <v>-207200000</v>
       </c>
@@ -7520,16 +7859,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-345324000</v>
@@ -7561,10 +7900,10 @@
       <c r="O91" s="1">
         <v>-2271700000</v>
       </c>
-      <c r="V91" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="W91" s="49">
+      <c r="V91" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="W91" s="44">
         <f>W89/W90</f>
         <v>-0.28861003861003859</v>
       </c>
@@ -7574,16 +7913,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1">
         <v>216201000</v>
@@ -7615,32 +7954,32 @@
       <c r="O92" s="1">
         <v>1568100000</v>
       </c>
-      <c r="V92" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="W92" s="51">
+      <c r="V92" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="W92" s="44">
         <f>W88*(1-W91)</f>
         <v>6.5850192972052865E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G93" s="1">
         <v>274000</v>
@@ -7649,7 +7988,7 @@
         <v>-128000</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J93" s="1">
         <v>300000</v>
@@ -7664,13 +8003,13 @@
         <v>500000</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V93" s="65" t="s">
-        <v>133</v>
+        <v>91</v>
+      </c>
+      <c r="V93" s="66" t="s">
+        <v>131</v>
       </c>
       <c r="W93" s="66"/>
     </row>
@@ -7720,11 +8059,12 @@
       <c r="O94" s="10">
         <v>-933400000</v>
       </c>
-      <c r="V94" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="W94" s="52">
-        <v>4.095E-2</v>
+      <c r="V94" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="W94" s="45">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:23" ht="20" x14ac:dyDescent="0.25">
@@ -7732,40 +8072,40 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L95" s="1">
         <v>-477400000</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N95" s="1">
         <v>-900000</v>
@@ -7773,10 +8113,10 @@
       <c r="O95" s="1">
         <v>-600000</v>
       </c>
-      <c r="V95" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="W95" s="55" cm="1">
+      <c r="V95" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="W95" s="46" cm="1">
         <f t="array" ref="W95">_FV(A1,"Beta")</f>
         <v>1.1873</v>
       </c>
@@ -7792,45 +8132,45 @@
         <v>7000</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>215375000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V96" s="46" t="s">
-        <v>136</v>
-      </c>
-      <c r="W96" s="52">
+        <v>91</v>
+      </c>
+      <c r="V96" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="W96" s="45">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -7839,7 +8179,7 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1">
         <v>-24000</v>
@@ -7857,10 +8197,10 @@
         <v>-132000</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J97" s="1">
         <v>-411000000</v>
@@ -7880,62 +8220,62 @@
       <c r="O97" s="1">
         <v>-892300000</v>
       </c>
-      <c r="V97" s="50" t="s">
-        <v>137</v>
-      </c>
-      <c r="W97" s="51">
+      <c r="V97" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="W97" s="44">
         <f>(W94)+((W95)*(W96-W94))</f>
-        <v>9.2063265000000005E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+        <v>9.2406024000000003E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V98" s="65" t="s">
-        <v>138</v>
+        <v>91</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0</v>
+      </c>
+      <c r="V98" s="66" t="s">
+        <v>136</v>
       </c>
       <c r="W98" s="66"/>
     </row>
@@ -7985,10 +8325,10 @@
       <c r="O99" s="1">
         <v>86300000</v>
       </c>
-      <c r="V99" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="W99" s="47">
+      <c r="V99" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="W99" s="42">
         <f>W86+W87</f>
         <v>3952900000</v>
       </c>
@@ -8039,10 +8379,10 @@
       <c r="O100" s="10">
         <v>-806600000</v>
       </c>
-      <c r="V100" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="W100" s="49">
+      <c r="V100" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="W100" s="44">
         <f>W99/W103</f>
         <v>4.8525915973224518E-2</v>
       </c>
@@ -8052,51 +8392,51 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V101" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="W101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="V101" s="41" t="s">
+        <v>139</v>
+      </c>
+      <c r="W101" s="47" cm="1">
         <f t="array" ref="W101">_FV(A1,"Market cap",TRUE)</f>
         <v>77506664868</v>
       </c>
@@ -8147,10 +8487,10 @@
       <c r="O102" s="10">
         <v>244700000</v>
       </c>
-      <c r="V102" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="W102" s="49">
+      <c r="V102" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="W102" s="44">
         <f>W101/W103</f>
         <v>0.95147408402677547</v>
       </c>
@@ -8201,15 +8541,15 @@
       <c r="O103" s="1">
         <v>1880100000</v>
       </c>
-      <c r="V103" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="W103" s="53">
+      <c r="V103" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="W103" s="48">
         <f>W99+W101</f>
         <v>81459564868</v>
       </c>
     </row>
-    <row r="104" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:23" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
@@ -8255,308 +8595,364 @@
       <c r="O104" s="11">
         <v>2124800000</v>
       </c>
-      <c r="V104" s="63" t="s">
+      <c r="V104" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="W104" s="66"/>
+    </row>
+    <row r="105" spans="1:23" ht="21" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" ref="B105:N105" si="10">(B22*(1-0.2))+B77+B88+B81</f>
+        <v>-11162000</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" si="10"/>
+        <v>-1052600</v>
+      </c>
+      <c r="D105" s="1">
+        <f t="shared" si="10"/>
+        <v>16996800</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="10"/>
+        <v>50598800</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="10"/>
+        <v>67279200</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="10"/>
+        <v>-47719600</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="10"/>
+        <v>130343200</v>
+      </c>
+      <c r="I105" s="1">
+        <f t="shared" si="10"/>
+        <v>240720000</v>
+      </c>
+      <c r="J105" s="1">
+        <f t="shared" si="10"/>
+        <v>255260000</v>
+      </c>
+      <c r="K105" s="1">
+        <f t="shared" si="10"/>
+        <v>402520000</v>
+      </c>
+      <c r="L105" s="1">
+        <f t="shared" si="10"/>
+        <v>206820000</v>
+      </c>
+      <c r="M105" s="1">
+        <f t="shared" si="10"/>
+        <v>-32300000</v>
+      </c>
+      <c r="N105" s="1">
+        <f t="shared" si="10"/>
+        <v>294220000</v>
+      </c>
+      <c r="O105" s="1">
+        <f>(O22*(1-0.2))+O77+O88+O81</f>
+        <v>459560000</v>
+      </c>
+      <c r="P105" s="29">
+        <f>O105*(1+$W$106)</f>
+        <v>553730961.86326921</v>
+      </c>
+      <c r="Q105" s="29">
+        <f t="shared" ref="Q105:T105" si="11">P105*(1+$W$106)</f>
+        <v>667199012.37275064</v>
+      </c>
+      <c r="R105" s="29">
+        <f t="shared" si="11"/>
+        <v>803918423.8736757</v>
+      </c>
+      <c r="S105" s="29">
+        <f t="shared" si="11"/>
+        <v>968653760.36028755</v>
+      </c>
+      <c r="T105" s="29">
+        <f t="shared" si="11"/>
+        <v>1167145918.7848694</v>
+      </c>
+      <c r="U105" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="V105" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="W105" s="50">
+        <f>(W100*W92)+(W102*W97)</f>
+        <v>8.8241481137054475E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15">
+        <f t="shared" ref="C106:O106" si="12">(C107/B107)-1</f>
+        <v>-0.70016474464579903</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="12"/>
+        <v>-5.3731684981684982</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="12"/>
+        <v>2.2877709140404145</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.46612422973424827</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.4320079933099471</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="12"/>
+        <v>5.0512820512820511</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.85037727979372835</v>
+      </c>
+      <c r="J106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.20406420765027322</v>
+      </c>
+      <c r="K106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.31187065664444757</v>
+      </c>
+      <c r="L106" s="15">
+        <f t="shared" si="12"/>
+        <v>-6.4864864864866423E-4</v>
+      </c>
+      <c r="M106" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.11153180441367372</v>
+      </c>
+      <c r="N106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.6887860708632656</v>
+      </c>
+      <c r="O106" s="15">
+        <f t="shared" si="12"/>
+        <v>0.29192501802451343</v>
+      </c>
+      <c r="P106" s="31">
+        <v>1689000000</v>
+      </c>
+      <c r="Q106" s="31">
+        <v>1916000000</v>
+      </c>
+      <c r="R106" s="31">
+        <v>2309000000</v>
+      </c>
+      <c r="S106" s="31">
+        <v>2999000000</v>
+      </c>
+      <c r="T106" s="31">
+        <v>3648000000</v>
+      </c>
+      <c r="U106" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="V106" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="W106" s="52">
+        <f>(SUM(P4:T4)/5)</f>
+        <v>0.20491548843082324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="A107" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1">
+        <v>-14568000</v>
+      </c>
+      <c r="C107" s="1">
+        <v>-4368000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>19102000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>62803000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>92077000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>52299000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>316476000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>585600000</v>
+      </c>
+      <c r="J107" s="1">
+        <v>705100000</v>
+      </c>
+      <c r="K107" s="1">
+        <v>925000000</v>
+      </c>
+      <c r="L107" s="1">
+        <v>924400000</v>
+      </c>
+      <c r="M107" s="1">
+        <v>821300000</v>
+      </c>
+      <c r="N107" s="1">
+        <v>1387000000</v>
+      </c>
+      <c r="O107" s="1">
+        <v>1791900000</v>
+      </c>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="26"/>
+      <c r="R107" s="26"/>
+      <c r="S107" s="26"/>
+      <c r="T107" s="62">
+        <f>T106*(1+W107)/(W108-W107)</f>
+        <v>59125749947.199234</v>
+      </c>
+      <c r="U107" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="W104" s="64"/>
-    </row>
-    <row r="105" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15">
-        <f>(C106/B106)-1</f>
-        <v>-0.70016474464579903</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-5.3731684981684982</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>2.2877709140404145</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>0.46612422973424827</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-0.4320079933099471</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:O105" si="8">(H106/G106)-1</f>
-        <v>5.0512820512820511</v>
-      </c>
-      <c r="I105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.85037727979372835</v>
-      </c>
-      <c r="J105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.20406420765027322</v>
-      </c>
-      <c r="K105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.31187065664444757</v>
-      </c>
-      <c r="L105" s="15">
-        <f t="shared" si="8"/>
-        <v>-6.4864864864866423E-4</v>
-      </c>
-      <c r="M105" s="15">
-        <f t="shared" si="8"/>
-        <v>-0.11153180441367372</v>
-      </c>
-      <c r="N105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.6887860708632656</v>
-      </c>
-      <c r="O105" s="15">
-        <f t="shared" si="8"/>
-        <v>0.29192501802451343</v>
-      </c>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="15"/>
-      <c r="T105" s="15"/>
-      <c r="U105" s="15"/>
-      <c r="V105" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="W105" s="24">
-        <f>(W100*W92)+(W102*W97)</f>
-        <v>8.7915354831487547E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1">
-        <v>-14568000</v>
-      </c>
-      <c r="C106" s="1">
-        <v>-4368000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>19102000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>62803000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>92077000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>52299000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>316476000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>585600000</v>
-      </c>
-      <c r="J106" s="1">
-        <v>705100000</v>
-      </c>
-      <c r="K106" s="1">
-        <v>925000000</v>
-      </c>
-      <c r="L106" s="1">
-        <v>924400000</v>
-      </c>
-      <c r="M106" s="1">
-        <v>821300000</v>
-      </c>
-      <c r="N106" s="1">
-        <v>1387000000</v>
-      </c>
-      <c r="O106" s="1">
-        <v>1791900000</v>
-      </c>
-      <c r="P106" s="57">
-        <f>O106*(1+$W$106)</f>
-        <v>2149365088.7245364</v>
-      </c>
-      <c r="Q106" s="57">
-        <f t="shared" ref="Q106:T106" si="9">P106*(1+$W$106)</f>
-        <v>2578140680.0758047</v>
-      </c>
-      <c r="R106" s="57">
-        <f t="shared" si="9"/>
-        <v>3092452464.7443881</v>
-      </c>
-      <c r="S106" s="57">
-        <f t="shared" si="9"/>
-        <v>3709364008.1822276</v>
-      </c>
-      <c r="T106" s="57">
-        <f t="shared" si="9"/>
-        <v>4449342876.588089</v>
-      </c>
-      <c r="U106" s="30" t="s">
+      <c r="V107" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="V106" s="31" t="s">
+      <c r="W107" s="54">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="P108" s="62">
+        <f t="shared" ref="P108:R108" si="13">P107+P106</f>
+        <v>1689000000</v>
+      </c>
+      <c r="Q108" s="62">
+        <f t="shared" si="13"/>
+        <v>1916000000</v>
+      </c>
+      <c r="R108" s="62">
+        <f t="shared" si="13"/>
+        <v>2309000000</v>
+      </c>
+      <c r="S108" s="62">
+        <f>S107+S106</f>
+        <v>2999000000</v>
+      </c>
+      <c r="T108" s="62">
+        <f>T107+T106</f>
+        <v>62773749947.199234</v>
+      </c>
+      <c r="U108" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="V108" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="W106" s="32">
-        <f>(SUM(P4:T4)/5)</f>
-        <v>0.19948941834060854</v>
-      </c>
-    </row>
-    <row r="107" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13"/>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="13"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="30"/>
-      <c r="Q107" s="30"/>
-      <c r="R107" s="30"/>
-      <c r="S107" s="30"/>
-      <c r="T107" s="33">
-        <f>T106*(1+W107)/(W108-W107)</f>
-        <v>72487494677.854645</v>
-      </c>
-      <c r="U107" s="34" t="s">
+      <c r="W108" s="52">
+        <f>W105</f>
+        <v>8.8241481137054475E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
+      <c r="P109" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="V107" s="35" t="s">
+      <c r="Q109" s="63"/>
+    </row>
+    <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="P110" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="W107" s="36">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P108" s="33">
-        <f t="shared" ref="P108:R108" si="10">P107+P106</f>
-        <v>2149365088.7245364</v>
-      </c>
-      <c r="Q108" s="33">
-        <f t="shared" si="10"/>
-        <v>2578140680.0758047</v>
-      </c>
-      <c r="R108" s="33">
-        <f t="shared" si="10"/>
-        <v>3092452464.7443881</v>
-      </c>
-      <c r="S108" s="33">
-        <f>S107+S106</f>
-        <v>3709364008.1822276</v>
-      </c>
-      <c r="T108" s="33">
-        <f>T107+T106</f>
-        <v>76936837554.442734</v>
-      </c>
-      <c r="U108" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="V108" s="37" t="s">
+      <c r="Q110" s="47">
+        <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
+        <v>48229217832.025024</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
+      <c r="P111" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="W108" s="38">
-        <f>W105</f>
-        <v>8.7915354831487547E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:23" ht="19" x14ac:dyDescent="0.25">
-      <c r="P109" s="59" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q109" s="60"/>
-    </row>
-    <row r="110" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P110" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q110" s="40">
-        <f>NPV(W108,P108,Q108,R108,S108,T108)</f>
-        <v>59688253164.844048</v>
-      </c>
-    </row>
-    <row r="111" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P111" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q111" s="40">
+      <c r="Q111" s="47">
         <f>O40</f>
         <v>3634500000</v>
       </c>
     </row>
     <row r="112" spans="1:23" ht="20" x14ac:dyDescent="0.25">
-      <c r="P112" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q112" s="40">
+      <c r="P112" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q112" s="47">
         <f>W99</f>
         <v>3952900000</v>
       </c>
     </row>
     <row r="113" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P113" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q113" s="40">
+      <c r="P113" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q113" s="47">
         <f>Q110+Q111-Q112</f>
-        <v>59369853164.844048</v>
+        <v>47910817832.025024</v>
       </c>
     </row>
     <row r="114" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P114" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q114" s="45">
+      <c r="P114" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q114" s="56">
         <f>O34*(1+(5*U16))</f>
         <v>320527883.87453437</v>
       </c>
     </row>
     <row r="115" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P115" s="41" t="s">
-        <v>155</v>
+      <c r="P115" s="57" t="s">
+        <v>152</v>
       </c>
       <c r="Q115" s="58">
         <f>Q113/Q114</f>
-        <v>185.22523671632715</v>
+        <v>149.47472666926839</v>
       </c>
     </row>
     <row r="116" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P116" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q116" s="56" cm="1">
+      <c r="P116" s="56" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q116" s="59" cm="1">
         <f t="array" ref="Q116">_FV(A1,"Price")</f>
         <v>253.41</v>
       </c>
     </row>
     <row r="117" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P117" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q117" s="43">
+      <c r="P117" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q117" s="60">
         <f>Q115/Q116-1</f>
-        <v>-0.26906895262094177</v>
+        <v>-0.41014669243807111</v>
       </c>
     </row>
     <row r="118" spans="16:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="P118" s="42" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q118" s="44" t="str">
+      <c r="P118" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q118" s="61" t="str">
         <f>IF(Q115&gt;Q116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -8601,8 +8997,9 @@
     <hyperlink ref="O36" r:id="rId28" tooltip="https://www.sec.gov/Archives/edgar/data/1327567/000132756722000028/0001327567-22-000028-index.htm" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
     <hyperlink ref="O74" r:id="rId29" tooltip="https://www.sec.gov/Archives/edgar/data/1327567/000132756722000028/0001327567-22-000028-index.htm" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
     <hyperlink ref="P1" r:id="rId30" display="https://finbox.com/NASDAQGS:PANW/explorer/revenue_proj" xr:uid="{40023DF8-DC48-AB4E-8BDA-49809FB92CCC}"/>
+    <hyperlink ref="U106" r:id="rId31" xr:uid="{016B0841-20EB-5143-B9D1-5D4EFD51841E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId31"/>
+  <drawing r:id="rId32"/>
 </worksheet>
 </file>